--- a/inputs-sequoia/single_spike_samples_filtered_list.xlsx
+++ b/inputs-sequoia/single_spike_samples_filtered_list.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,39 +387,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0505-MOD-SOL</t>
+          <t>0506-ESP-INF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0506-ESP-INF</t>
+          <t>0506-ESP-SOL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -434,14 +434,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0506-ESP-SOL</t>
+          <t>0506-LOB-SOL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -451,321 +451,321 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0506-LOB-SOL</t>
+          <t>0506-WIN-INF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0506-UCD-INF</t>
+          <t>0506-WIN-SOL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0506-UCD-SOL</t>
+          <t>0506-WOD-INF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0506-WIN-INF</t>
+          <t>0506-WOD-SOL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0506-WIN-SOL</t>
+          <t>0507-TUR-INF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0506-WOD-INF</t>
+          <t>0507-TUR-SOL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0506-WOD-SOL</t>
+          <t>0516-ESP-INF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0507-TUR-INF</t>
+          <t>0516-ESP-SOL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0507-TUR-SOL</t>
+          <t>0516-LOB-INF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0516-ESP-INF</t>
+          <t>0516-LOB-SOL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0516-ESP-SOL</t>
+          <t>0516-TUR-INF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0516-LOB-INF</t>
+          <t>0516-WIN-INF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -775,51 +775,51 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0516-LOB-SOL</t>
+          <t>0516-WOD-INF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0516-MER-SOL</t>
+          <t>0516-WOD-SOL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -829,51 +829,51 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0516-MOD-SOL</t>
+          <t>0526-ESP-INF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0516-TUR-INF</t>
+          <t>0526-LOB-INF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -883,24 +883,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0516-UCD-SOL</t>
+          <t>0526-LOB-SOL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -910,24 +910,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0516-WIN-INF</t>
+          <t>0526-TUR-INF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -937,24 +937,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0516-WOD-INF</t>
+          <t>0526-WIN-INF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -964,24 +964,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0516-WOD-SOL</t>
+          <t>0526-WIN-SOL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -991,24 +991,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0526-ESP-INF</t>
+          <t>0526-WOD-INF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1018,51 +1018,51 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0526-LOB-INF</t>
+          <t>0526-WOD-SOL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0526-LOB-SOL</t>
+          <t>0606-ESP-SOL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1072,24 +1072,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0526-MER-SOL</t>
+          <t>0606-TUR-SOL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1099,24 +1099,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0526-MOD-SOL</t>
+          <t>0606-WIN-SOL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1126,51 +1126,51 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0526-TUR-INF</t>
+          <t>0606-WOD-SOL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0526-UCD-INF</t>
+          <t>0610-ESP-INF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1180,51 +1180,51 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0526-UCD-SOL</t>
+          <t>0610-LOB-INF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0526-WIN-INF</t>
+          <t>0610-WIN-INF</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1251,34 +1251,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0526-WIN-SOL</t>
+          <t>0610-WOD-INF</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0526-WOD-INF</t>
+          <t>0611-TUR-INF</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1288,24 +1288,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0526-WOD-SOL</t>
+          <t>0616-ESP-SOL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1315,51 +1315,51 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0606-ESP-SOL</t>
+          <t>0616-LOB-INF</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0606-MER-SOL</t>
+          <t>0616-LOB-SOL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1369,51 +1369,51 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0606-MOD-SOL</t>
+          <t>0616-TUR-INF</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0606-TUR-SOL</t>
+          <t>0616-TUR-SOL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1440,34 +1440,34 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0606-UCD-SOL</t>
+          <t>0616-WIN-INF</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0606-WIN-SOL</t>
+          <t>0616-WIN-SOL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1494,12 +1494,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0606-WOD-SOL</t>
+          <t>0616-WOD-INF</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1514,41 +1514,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0610-ESP-INF</t>
+          <t>0616-WOD-SOL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0610-LOB-INF</t>
+          <t>0627-ESP-INF</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1558,51 +1558,51 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0610-WIN-INF</t>
+          <t>0627-ESP-SOL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0610-WOD-INF</t>
+          <t>0627-LOB-INF</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1612,132 +1612,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0611-TUR-INF</t>
+          <t>0627-LOB-SOL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0616-ESP-SOL</t>
+          <t>0627-TUR-INF</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0616-LOB-INF</t>
+          <t>0627-TUR-SOL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0616-LOB-SOL</t>
+          <t>0627-WOD-INF</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0616-MER-SOL</t>
+          <t>0627-WOD-SOL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1747,51 +1747,51 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0616-MOD-SOL</t>
+          <t>0628-WIN-INF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0616-TUR-INF</t>
+          <t>0707-ESP-INF</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1801,24 +1801,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0616-TUR-SOL</t>
+          <t>0707-ESP-SOL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1828,24 +1828,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0616-UCD-INF</t>
+          <t>0707-LOB-INF</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0616-UCD-SOL</t>
+          <t>0707-LOB-SOL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1882,24 +1882,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0616-WIN-INF</t>
+          <t>0707-TUR-INF</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1909,29 +1909,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0616-WIN-SOL</t>
+          <t>0707-WIN-INF</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1946,46 +1946,46 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0616-WOD-INF</t>
+          <t>0707-WIN-SOL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0616-WOD-SOL</t>
+          <t>0707-WOD-INF</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2000,46 +2000,46 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0627-ESP-INF</t>
+          <t>0707-WOD-SOL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0627-ESP-SOL</t>
+          <t>0718-ESP-INF</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2054,46 +2054,46 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0627-LOB-INF</t>
+          <t>0718-ESP-SOL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0627-LOB-SOL</t>
+          <t>0718-LOB-INF</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2108,14 +2108,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0627-MER-SOL</t>
+          <t>0718-LOB-SOL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2125,56 +2125,56 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0627-MOD-SOL</t>
+          <t>0718-TUR-INF</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0627-TUR-INF</t>
+          <t>0718-TUR-SOL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2189,68 +2189,68 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0627-TUR-SOL</t>
+          <t>0718-WIN-INF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0627-WOD-INF</t>
+          <t>0718-WIN-SOL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0627-WOD-SOL</t>
+          <t>0718-WOD-SOL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2277,61 +2277,61 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0628-WIN-INF</t>
+          <t>0728-ESP-SOL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0707-ESP-INF</t>
+          <t>0728-LOB-SOL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0707-ESP-SOL</t>
+          <t>0728-TUR-SOL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2341,51 +2341,51 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0707-LOB-INF</t>
+          <t>0728-WIN-SOL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0707-LOB-SOL</t>
+          <t>0728-WOD-SOL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2395,105 +2395,105 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0707-MER-SOL</t>
+          <t>0729-LOB-INF</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0707-MOD-SOL</t>
+          <t>0809-ESP-INF</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0707-TUR-INF</t>
+          <t>0809-ESP-SOL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0707-UCD-INF</t>
+          <t>0809-LOB-INF</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2503,24 +2503,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0707-UCD-SOL</t>
+          <t>0809-LOB-SOL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0707-WIN-INF</t>
+          <t>0809-TUR-INF</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2557,24 +2557,24 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0707-WIN-SOL</t>
+          <t>0809-TUR-SOL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2584,24 +2584,24 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0707-WOD-INF</t>
+          <t>0809-WIN-INF</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2611,24 +2611,24 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0707-WOD-SOL</t>
+          <t>0809-WIN-SOL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2638,24 +2638,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0718-ESP-INF</t>
+          <t>0809-WOD-INF</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2665,24 +2665,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0718-ESP-SOL</t>
+          <t>0809-WOD-SOL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2692,24 +2692,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0718-LOB-INF</t>
+          <t>0818-ESP-INF</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2719,24 +2719,24 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0718-LOB-SOL</t>
+          <t>0818-ESP-SOL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2746,51 +2746,51 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0718-MER-SOL</t>
+          <t>0818-LOB-INF</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0718-MOD-SOL</t>
+          <t>0818-LOB-SOL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2800,24 +2800,24 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0718-TUR-INF</t>
+          <t>0818-TUR-INF</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2844,7 +2844,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0718-TUR-SOL</t>
+          <t>0818-TUR-SOL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2871,7 +2871,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0718-UCD-INF</t>
+          <t>0818-WIN-INF</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2881,24 +2881,24 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0718-UCD-SOL</t>
+          <t>0818-WIN-SOL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2908,24 +2908,24 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0718-WIN-INF</t>
+          <t>0818-WOD-INF</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2935,24 +2935,24 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0718-WIN-SOL</t>
+          <t>0818-WOD-SOL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2962,51 +2962,51 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0718-WOD-SOL</t>
+          <t>0830-LOB-INF</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0728-ESP-SOL</t>
+          <t>0830-LOB-SOL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3016,51 +3016,51 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0728-LOB-SOL</t>
+          <t>0830-TUR-INF</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0728-MER-SOL</t>
+          <t>0830-TUR-SOL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3070,51 +3070,51 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0728-MOD-SOL</t>
+          <t>0830-WIN-INF</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0728-TUR-SOL</t>
+          <t>0830-WIN-SOL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3124,51 +3124,51 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0728-UCD-SOL</t>
+          <t>0830-WOD-INF</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0728-WIN-SOL</t>
+          <t>0830-WOD-SOL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3178,24 +3178,24 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0728-WOD-SOL</t>
+          <t>0831-ESP-SOL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3205,24 +3205,24 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0729-LOB-INF</t>
+          <t>0907-TUR-INF</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3232,24 +3232,24 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0808-UCD-INF</t>
+          <t>0908-ESP-INF</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3259,29 +3259,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0809-ESP-INF</t>
+          <t>0908-ESP-SOL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3296,46 +3296,46 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0809-ESP-SOL</t>
+          <t>0908-LOB-INF</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0809-LOB-INF</t>
+          <t>0908-LOB-SOL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3350,14 +3350,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0809-LOB-SOL</t>
+          <t>0908-TUR-SOL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3367,24 +3367,24 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0809-MER-SOL</t>
+          <t>0908-WIN-SOL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3394,105 +3394,105 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0809-MOD-SOL</t>
+          <t>0908-WOD-INF</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0809-TUR-INF</t>
+          <t>0908-WOD-SOL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0809-TUR-SOL</t>
+          <t>0920-ESP-INF</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0809-UCD-SOL</t>
+          <t>0920-ESP-SOL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3502,24 +3502,24 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0809-WIN-INF</t>
+          <t>0920-LOB-INF</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3529,24 +3529,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0809-WIN-SOL</t>
+          <t>0920-LOB-SOL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3556,24 +3556,24 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0809-WOD-INF</t>
+          <t>0920-TUR-INF</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3583,24 +3583,24 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0809-WOD-SOL</t>
+          <t>0920-TUR-SOL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3610,24 +3610,24 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0818-ESP-INF</t>
+          <t>0920-WIN-INF</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3637,24 +3637,24 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0818-ESP-SOL</t>
+          <t>0920-WIN-SOL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3664,24 +3664,24 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0818-LOB-INF</t>
+          <t>0920-WOD-INF</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3691,24 +3691,24 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0818-LOB-SOL</t>
+          <t>0920-WOD-SOL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3718,51 +3718,51 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0818-MER-SOL</t>
+          <t>0929-ESP-INF</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0818-MOD-SOL</t>
+          <t>0929-ESP-SOL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3772,24 +3772,24 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0818-TUR-INF</t>
+          <t>0929-LOB-INF</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3799,24 +3799,24 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0818-TUR-SOL</t>
+          <t>0929-LOB-SOL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3826,24 +3826,24 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0818-UCD-INF</t>
+          <t>0929-TUR-INF</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3853,24 +3853,24 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0818-UCD-SOL</t>
+          <t>0929-TUR-SOL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3880,24 +3880,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0818-WIN-INF</t>
+          <t>0929-WIN-INF</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0818-WIN-SOL</t>
+          <t>0929-WIN-SOL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3951,7 +3951,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0818-WOD-INF</t>
+          <t>0929-WOD-INF</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0818-WOD-SOL</t>
+          <t>0929-WOD-SOL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4005,7 +4005,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0830-LOB-INF</t>
+          <t>1011-ESP-INF</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4015,24 +4015,24 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0830-LOB-SOL</t>
+          <t>1011-ESP-SOL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4042,83 +4042,83 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0830-MOD-SOL</t>
+          <t>1011-LOB-INF</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0830-TUR-INF</t>
+          <t>1011-LOB-SOL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0830-TUR-SOL</t>
+          <t>1011-TUR-INF</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4133,73 +4133,73 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0830-UCD-INF</t>
+          <t>1011-TUR-SOL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0830-UCD-SOL</t>
+          <t>1011-WIN-INF</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0830-WIN-INF</t>
+          <t>1011-WIN-SOL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4214,46 +4214,46 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0830-WIN-SOL</t>
+          <t>1011-WOD-INF</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0830-WOD-INF</t>
+          <t>1011-WOD-SOL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4268,41 +4268,41 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0830-WOD-SOL</t>
+          <t>1020-ESP-INF</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0831-ESP-SOL</t>
+          <t>1020-ESP-SOL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4329,7 +4329,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0907-TUR-INF</t>
+          <t>1020-LOB-INF</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4339,132 +4339,132 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0908-ESP-INF</t>
+          <t>1020-LOB-SOL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0908-ESP-SOL</t>
+          <t>1020-TUR-INF</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0908-LOB-INF</t>
+          <t>1020-TUR-SOL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0908-LOB-SOL</t>
+          <t>1020-WIN-INF</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0908-MER-SOL</t>
+          <t>1020-WIN-SOL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4474,51 +4474,51 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0908-MOD-SOL</t>
+          <t>1020-WOD-INF</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0908-TUR-SOL</t>
+          <t>1020-WOD-SOL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4528,24 +4528,24 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0908-UCD-INF</t>
+          <t>1031-WOD-INF</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4555,24 +4555,24 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0908-UCD-SOL</t>
+          <t>1031-WOD-SOL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4582,105 +4582,105 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0908-WIN-SOL</t>
+          <t>1101-ESP-INF</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0908-WOD-INF</t>
+          <t>1101-ESP-SOL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0908-WOD-SOL</t>
+          <t>1101-LOB-INF</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0920-ESP-INF</t>
+          <t>1101-TUR-INF</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4690,24 +4690,24 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0920-ESP-SOL</t>
+          <t>1101-TUR-SOL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4717,24 +4717,24 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0920-LOB-INF</t>
+          <t>1101-WIN-INF</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4744,24 +4744,24 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0920-LOB-SOL</t>
+          <t>1101-WIN-SOL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4771,24 +4771,24 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0920-MER-SOL</t>
+          <t>1110-ESP-SOL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4798,56 +4798,56 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0920-MOD-SOL</t>
+          <t>1110-TUR-INF</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0920-TUR-INF</t>
+          <t>1110-TUR-SOL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4862,230 +4862,230 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0920-TUR-SOL</t>
+          <t>1110-WIN-INF</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0920-UCD-INF</t>
+          <t>1110-WIN-SOL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0920-UCD-SOL</t>
+          <t>1110-WOD-INF</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0920-WIN-INF</t>
+          <t>1110-WOD-SOL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Winters - Influent</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0920-WIN-SOL</t>
+          <t>1122-ESP-INF</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Winters - Solids</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0920-WOD-INF</t>
+          <t>1122-ESP-SOL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Woodland - Influent</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0920-WOD-SOL</t>
+          <t>1122-LOB-INF</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Woodland - Solids</t>
+          <t>Los Banos - Influent</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0928-UCD-INF</t>
+          <t>1122-LOB-SOL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>UC Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Los Banos</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>UC Davis - Influent</t>
+          <t>Los Banos - Solids</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0929-ESP-INF</t>
+          <t>1122-TUR-INF</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5095,24 +5095,24 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Esparto - Influent</t>
+          <t>Turlock - Influent</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0929-ESP-SOL</t>
+          <t>1122-TUR-SOL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5122,24 +5122,24 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Esparto</t>
+          <t>Turlock</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Esparto - Solids</t>
+          <t>Turlock - Solids</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0929-LOB-INF</t>
+          <t>1122-WIN-INF</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5149,24 +5149,24 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Los Banos - Influent</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0929-LOB-SOL</t>
+          <t>1122-WIN-SOL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5176,51 +5176,51 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Los Banos</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Los Banos - Solids</t>
+          <t>Winters - Solids</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0929-MER-SOL</t>
+          <t>1122-WOD-INF</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Merced</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Merced - Solids</t>
+          <t>Woodland - Influent</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0929-MOD-SOL</t>
+          <t>1122-WOD-SOL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5230,24 +5230,24 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Modesto - Solids</t>
+          <t>Woodland - Solids</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0929-TUR-INF</t>
+          <t>1129-ESP-INF</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5257,51 +5257,51 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Turlock - Influent</t>
+          <t>Esparto - Influent</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0929-TUR-SOL</t>
+          <t>1129-WIN-INF</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Solids</t>
+          <t>Influent</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Turlock</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Turlock - Solids</t>
+          <t>Winters - Influent</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0929-UCD-SOL</t>
+          <t>1130-ESP-SOL</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5311,29 +5311,29 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>City of Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Esparto</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>City of Davis - Solids</t>
+          <t>Esparto - Solids</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0929-WIN-INF</t>
+          <t>1130-WIN-SOL</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Influent</t>
+          <t>Solids</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5347,1761 +5347,6 @@
         </is>
       </c>
       <c r="E185" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>0929-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>0929-WOD-INF</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Woodland - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>0929-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>1011-ESP-INF</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Esparto - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>1011-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>1011-LOB-INF</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Los Banos - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>1011-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>1011-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>1011-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>1011-TUR-INF</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Turlock - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>1011-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>1011-WIN-INF</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>1011-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>1011-WOD-INF</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Woodland - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>1011-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>1020-ESP-INF</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Esparto - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>1020-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>1020-LOB-INF</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Los Banos - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>1020-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>1020-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>1020-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>1020-TUR-INF</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Turlock - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>1020-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>1020-WIN-INF</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>1020-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>1020-WOD-INF</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Woodland - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>1020-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>1031-WOD-INF</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Woodland - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>1031-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>1101-ESP-INF</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Esparto - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>1101-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>1101-LOB-INF</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Los Banos - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>1101-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>1101-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>1101-TUR-INF</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Turlock - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>1101-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>1101-WIN-INF</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>1101-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>1110-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>1110-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>1110-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>1110-TUR-INF</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Turlock - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>1110-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>1110-WIN-INF</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>1110-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>1110-WOD-INF</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Woodland - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>1110-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>1122-ESP-INF</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Esparto - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>1122-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>1122-LOB-INF</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Los Banos - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>1122-LOB-SOL</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Los Banos</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Los Banos - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>1122-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>1122-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>1122-TUR-INF</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Turlock - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>1122-TUR-SOL</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Turlock</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Turlock - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>1122-WIN-INF</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>1122-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Winters - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>1122-WOD-INF</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Woodland - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>1122-WOD-SOL</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Woodland - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>1129-ESP-INF</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Esparto - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>1129-WIN-INF</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Influent</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Winters - Influent</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>1130-ESP-SOL</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Esparto</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Esparto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>1130-MER-SOL</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Merced</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Merced - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>1130-MOD-SOL</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Modesto</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Modesto - Solids</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>1130-WIN-SOL</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Solids</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Winters</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
         <is>
           <t>Winters - Solids</t>
         </is>
